--- a/results/I3_N5_M2_T30_C150_DepCentral_s1_res_fix.xlsx
+++ b/results/I3_N5_M2_T30_C150_DepCentral_s1_res_fix.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1387.469878926377</v>
+        <v>166.3547920954952</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0130000114440918</v>
+        <v>0.002000093460083008</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>28.19570705323225</v>
+        <v>32.35479209549518</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.338512658882956</v>
+        <v>2.348576590192451</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.862684532036055</v>
+        <v>2.348576590192451</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>900.6199999999913</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>460.13</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -587,7 +587,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -598,7 +598,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -609,42 +609,9 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>3</v>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>4</v>
-      </c>
-      <c r="B7" t="n">
-        <v>3</v>
-      </c>
-      <c r="C7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -689,7 +656,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -711,7 +678,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -722,7 +689,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -733,7 +700,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -744,7 +711,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -755,7 +722,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -802,7 +769,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -813,7 +780,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -824,7 +791,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -846,7 +813,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -857,7 +824,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -918,7 +885,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3.695361957914272</v>
+        <v>25.54582726020204</v>
       </c>
     </row>
     <row r="4">
@@ -926,7 +893,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>16.21168903071567</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
@@ -934,7 +901,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>14.60987755616568</v>
+        <v>21.60181147454999</v>
       </c>
     </row>
     <row r="6">
@@ -942,7 +909,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -950,7 +917,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
@@ -958,7 +925,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>20</v>
+        <v>29.24118921811631</v>
       </c>
     </row>
     <row r="9">
@@ -966,7 +933,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>27.23104729676617</v>
+        <v>25.51610579153741</v>
       </c>
     </row>
   </sheetData>
@@ -980,7 +947,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1012,13 +979,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -1026,13 +993,13 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -1040,127 +1007,15 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>2</v>
-      </c>
-      <c r="B5" t="n">
-        <v>6</v>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>2</v>
-      </c>
-      <c r="B6" t="n">
-        <v>6</v>
-      </c>
-      <c r="C6" t="n">
-        <v>5</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>3</v>
-      </c>
-      <c r="B7" t="n">
-        <v>2</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>3</v>
-      </c>
-      <c r="B8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" t="n">
-        <v>2</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>3</v>
-      </c>
-      <c r="B9" t="n">
-        <v>2</v>
-      </c>
-      <c r="C9" t="n">
-        <v>3</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>3</v>
-      </c>
-      <c r="B10" t="n">
-        <v>2</v>
-      </c>
-      <c r="C10" t="n">
-        <v>4</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>3</v>
-      </c>
-      <c r="B11" t="n">
-        <v>2</v>
-      </c>
-      <c r="C11" t="n">
-        <v>5</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>4</v>
-      </c>
-      <c r="B12" t="n">
-        <v>7</v>
-      </c>
-      <c r="C12" t="n">
-        <v>3</v>
-      </c>
-      <c r="D12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1263,7 +1118,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>115.6100000000003</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8">
@@ -1274,7 +1129,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>113.5950000000003</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9">
@@ -1285,7 +1140,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>115.2400000000003</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10">
@@ -1296,7 +1151,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>111.4400000000003</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11">
@@ -1307,7 +1162,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>113.6550000000003</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12">
@@ -1318,7 +1173,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>241.1049999999991</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13">
@@ -1329,7 +1184,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>235.2299999999991</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14">
@@ -1340,7 +1195,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>224.6099999999991</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15">
@@ -1351,7 +1206,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>233.4949999999992</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16">
@@ -1362,7 +1217,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>237.2099999999991</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17">
@@ -1373,7 +1228,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>196.6649999999994</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18">
@@ -1384,7 +1239,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>196.6949999999994</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19">
@@ -1395,7 +1250,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>183.2399999999994</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20">
@@ -1406,7 +1261,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>187.6799999999994</v>
+        <v>153</v>
       </c>
     </row>
     <row r="21">
@@ -1417,7 +1272,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>191.3749999999994</v>
+        <v>146</v>
       </c>
     </row>
     <row r="22">
@@ -1428,7 +1283,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>155.515</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23">
@@ -1439,7 +1294,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>151.33</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24">
@@ -1450,7 +1305,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>152.085</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25">
@@ -1461,7 +1316,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>159.6700000000009</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26">
@@ -1472,7 +1327,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>160.06</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27">
@@ -1483,7 +1338,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>89.01500000000037</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28">
@@ -1494,7 +1349,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>85.72000000000037</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29">
@@ -1505,7 +1360,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>84.66500000000036</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30">
@@ -1516,7 +1371,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>89.62500000000037</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31">
@@ -1527,7 +1382,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>93.42500000000037</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32">
@@ -1538,7 +1393,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>241.1049999999991</v>
+        <v>122</v>
       </c>
     </row>
     <row r="33">
@@ -1549,7 +1404,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>235.2299999999991</v>
+        <v>116</v>
       </c>
     </row>
     <row r="34">
@@ -1560,7 +1415,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>224.6099999999991</v>
+        <v>116</v>
       </c>
     </row>
     <row r="35">
@@ -1571,7 +1426,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>233.4949999999992</v>
+        <v>120</v>
       </c>
     </row>
     <row r="36">
@@ -1582,7 +1437,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>237.2099999999991</v>
+        <v>123</v>
       </c>
     </row>
     <row r="37">
@@ -1593,7 +1448,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>155.515</v>
+        <v>148</v>
       </c>
     </row>
     <row r="38">
@@ -1604,7 +1459,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>151.33</v>
+        <v>162</v>
       </c>
     </row>
     <row r="39">
@@ -1615,7 +1470,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>152.085</v>
+        <v>163</v>
       </c>
     </row>
     <row r="40">
@@ -1626,7 +1481,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>159.6700000000009</v>
+        <v>153</v>
       </c>
     </row>
     <row r="41">
@@ -1637,7 +1492,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>160.06</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -1684,7 +1539,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>91.10499999999914</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1695,7 +1550,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>85.22999999999914</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1706,7 +1561,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>74.6099999999991</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1717,7 +1572,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>83.49499999999915</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1728,7 +1583,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>87.20999999999913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1739,7 +1594,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>5.515</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1750,7 +1605,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>1.33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9">
@@ -1761,7 +1616,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>2.085</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10">
@@ -1772,7 +1627,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>9.67</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -1783,7 +1638,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>10.06</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1830,7 +1685,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>11.36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1841,7 +1696,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>14.055</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1852,7 +1707,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>21.615</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1863,7 +1718,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>15.815</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1874,7 +1729,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>9.824999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1885,7 +1740,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>2.605</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1896,7 +1751,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>6.69</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1907,7 +1762,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>5.28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1918,7 +1773,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>5.71</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1929,7 +1784,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>3.43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1940,7 +1795,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>4.015</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1951,7 +1806,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>5.44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1962,7 +1817,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>6.91</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1973,7 +1828,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>6.73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1984,7 +1839,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>5.025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1995,7 +1850,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>9.390000000000001</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
@@ -2006,7 +1861,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>10.08</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19">
@@ -2017,7 +1872,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>12.78</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20">
@@ -2028,7 +1883,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>10.21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21">
@@ -2039,7 +1894,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>8.93</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
@@ -2050,7 +1905,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>12.71</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2061,7 +1916,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>10.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2072,7 +1927,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>13.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2083,7 +1938,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>7.32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2094,7 +1949,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>10.14</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2108,7 +1963,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2135,10 +1990,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -2146,10 +2001,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -2157,144 +2012,12 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>2</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>2</v>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>3</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>3</v>
-      </c>
-      <c r="B8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>3</v>
-      </c>
-      <c r="B9" t="n">
-        <v>3</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>3</v>
-      </c>
-      <c r="B10" t="n">
-        <v>4</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>3</v>
-      </c>
-      <c r="B11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>4</v>
-      </c>
-      <c r="B12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>4</v>
-      </c>
-      <c r="B13" t="n">
-        <v>2</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>4</v>
-      </c>
-      <c r="B14" t="n">
-        <v>3</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>4</v>
-      </c>
-      <c r="B15" t="n">
-        <v>4</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>4</v>
-      </c>
-      <c r="B16" t="n">
-        <v>5</v>
-      </c>
-      <c r="C16" t="n">
         <v>1</v>
       </c>
     </row>
